--- a/biology/Médecine/Harriet_Mayanja-Kizza/Harriet_Mayanja-Kizza.xlsx
+++ b/biology/Médecine/Harriet_Mayanja-Kizza/Harriet_Mayanja-Kizza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harriet Mayanja-Kizza née en 1955 est une médecin, chercheuse et administratrice universitaire ougandaise. Elle est l'ancienne doyenne de l'école de médecine de l'université Makerere[1],[2], la plus ancienne faculté de médecine d'Afrique de l'Est[3], créée en 1924[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harriet Mayanja-Kizza née en 1955 est une médecin, chercheuse et administratrice universitaire ougandaise. Elle est l'ancienne doyenne de l'école de médecine de l'université Makerere la plus ancienne faculté de médecine d'Afrique de l'Est, créée en 1924.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Enfance et éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est née en 1955[5] dans la région centrale de l'Ouganda. Elle obtient les diplômes de Bachelors of Medicine and Surgery, à l'université Makerere en 1978. Elle détient également un master de médecine interne, obtenu en 1983, à la même université. Elle a étudié l'immunologie et la pathologie à l'université Case Western Reserve à Cleveland, Ohio, États-Unis, obtenant un diplôme de maîtrise universitaire ès sciences dans ces domaines en 1999[2]. Elle est membre de l'American College of Physicians[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est née en 1955 dans la région centrale de l'Ouganda. Elle obtient les diplômes de Bachelors of Medicine and Surgery, à l'université Makerere en 1978. Elle détient également un master de médecine interne, obtenu en 1983, à la même université. Elle a étudié l'immunologie et la pathologie à l'université Case Western Reserve à Cleveland, Ohio, États-Unis, obtenant un diplôme de maîtrise universitaire ès sciences dans ces domaines en 1999. Elle est membre de l'American College of Physicians.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mayanja-Kizza a travaillé comme chargée de cours au Département de médecine interne de la faculté de médecine de l'Université Makerere. Elle a également dirigé le département de médecine interne, à la fois à la faculté de médecine et à l'hôpital national de référence de Mulago, l'hôpital universitaire de l'université. En novembre 2010, elle a été nommée doyenne de l'école de médecine de l'université Makerere (en)[6],[7]. Elle a fait de nombreuses présentations lors de conférences nationales, régionales et internationales et a publié différents articles dans des revues à comité de lecture[8].  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mayanja-Kizza a travaillé comme chargée de cours au Département de médecine interne de la faculté de médecine de l'Université Makerere. Elle a également dirigé le département de médecine interne, à la fois à la faculté de médecine et à l'hôpital national de référence de Mulago, l'hôpital universitaire de l'université. En novembre 2010, elle a été nommée doyenne de l'école de médecine de l'université Makerere (en),. Elle a fait de nombreuses présentations lors de conférences nationales, régionales et internationales et a publié différents articles dans des revues à comité de lecture.  
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Activités de recherche</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son domaine de spécialisation est l'immunologie, notamment l'interaction entre le VIH/SIDA et la tuberculose. Ses recherches portent sur l'immunopathogenèse et les traitements d'immunomodulation chez les patients atteints de ces deux affections[2]. 
-Harriet Mayanja-Kizza est membre de l'Académie nationale des sciences ougandaise[9].  
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son domaine de spécialisation est l'immunologie, notamment l'interaction entre le VIH/SIDA et la tuberculose. Ses recherches portent sur l'immunopathogenèse et les traitements d'immunomodulation chez les patients atteints de ces deux affections. 
+Harriet Mayanja-Kizza est membre de l'Académie nationale des sciences ougandaise.  
 </t>
         </is>
       </c>
